--- a/Supplementary Materials/Supplementary Table S5.xlsx
+++ b/Supplementary Materials/Supplementary Table S5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Documents/NingLab/manuscripts/psb-2024/revision/Supplementary Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D0D55A-AB20-4C4A-B408-55E7737F644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A619C8C1-8F83-4244-B364-F4AC968198E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="23980" windowWidth="29560" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24760" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A) definitions" sheetId="1" r:id="rId1"/>
@@ -453,6 +453,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,14 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +795,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -987,24 +987,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1012,16 +1012,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9.7323999999999994E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.102217</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.2160000000000001E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1029,16 +1029,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.107464</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.1134500000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>1.9636000000000001E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>4.43E-8</v>
       </c>
     </row>
@@ -1046,16 +1046,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.121683</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1293960000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>1.8384000000000001E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>3.6200000000000002E-11</v>
       </c>
     </row>
@@ -1063,16 +1063,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-0.10355300000000001</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.90162799999999999</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>5.9540000000000003E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>8.1995999999999999E-2</v>
       </c>
     </row>
@@ -1080,16 +1080,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-3.4374000000000002E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.96621000000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>2.2141000000000001E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.120543</v>
       </c>
     </row>
@@ -1097,16 +1097,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.55433900000000003</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.7407900000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>3.6385000000000001E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1114,16 +1114,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>2.3907999999999999E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.024197</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>3.2535000000000001E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.46242499999999997</v>
       </c>
     </row>
@@ -1131,16 +1131,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>7.8381999999999993E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.0815360000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>2.0874E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>1.73E-4</v>
       </c>
     </row>
@@ -1148,16 +1148,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-3.3813999999999997E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.96675100000000003</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>2.2852000000000001E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.138955</v>
       </c>
     </row>
@@ -1165,16 +1165,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.14155000000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.1520589999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>2.7722E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>3.2899999999999999E-7</v>
       </c>
     </row>
@@ -1182,16 +1182,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>2.98E-3</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.0029840000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>3.6653999999999999E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.93520800000000004</v>
       </c>
     </row>
@@ -1199,16 +1199,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.16303400000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.84956299999999996</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>4.6009000000000001E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
@@ -1216,16 +1216,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.53212899999999996</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.702553</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>2.0230000000000001E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1233,16 +1233,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.56451399999999996</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.56863600000000003</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>3.9958E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1261,24 +1261,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1286,16 +1286,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.100796</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1060509999999999</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.7279999999999999E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1303,16 +1303,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>1.8407E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.018578</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>2.9402999999999999E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.53129000000000004</v>
       </c>
     </row>
@@ -1320,16 +1320,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.108098</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1141570000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>2.6657E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>5.0099999999999998E-5</v>
       </c>
     </row>
@@ -1337,16 +1337,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-3.2552999999999999E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.96797100000000003</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>4.2694999999999997E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.44579000000000002</v>
       </c>
     </row>
@@ -1354,16 +1354,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.91943200000000003</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>3.2636999999999999E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1.0059999999999999E-2</v>
       </c>
     </row>
@@ -1371,16 +1371,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.42611900000000003</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.5313030000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>5.7563999999999997E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.3400000000000001E-13</v>
       </c>
     </row>
@@ -1388,16 +1388,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-9.7611000000000003E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.90700099999999995</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>5.6100999999999998E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>8.1869999999999998E-2</v>
       </c>
     </row>
@@ -1405,16 +1405,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>7.8211000000000003E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.08135</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>2.8913000000000001E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>6.8300000000000001E-3</v>
       </c>
     </row>
@@ -1422,16 +1422,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-8.6240999999999998E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.91737299999999999</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>3.5771999999999998E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>1.5910000000000001E-2</v>
       </c>
     </row>
@@ -1439,16 +1439,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>9.3562999999999993E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.0980799999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>3.9419000000000003E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1.762E-2</v>
       </c>
     </row>
@@ -1456,16 +1456,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>1.17E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.011768</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>5.2511000000000002E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.82369000000000003</v>
       </c>
     </row>
@@ -1473,16 +1473,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.254025</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.77567200000000003</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>7.2747999999999993E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
@@ -1490,16 +1490,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.46759200000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.5961460000000001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>2.7134999999999999E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1507,16 +1507,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.37972</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.68405300000000002</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>6.1985999999999999E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>9.0199999999999999E-10</v>
       </c>
     </row>
@@ -1529,30 +1529,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="248" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1560,16 +1560,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.16964000000000001</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1848799999999999</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>2.18E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>7.2000000000000002E-15</v>
       </c>
     </row>
@@ -1577,16 +1577,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-0.23508000000000001</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.79049999999999998</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.28160000000000002</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.40379999999999999</v>
       </c>
     </row>
@@ -1594,16 +1594,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.49515999999999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.6407700000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.27678999999999998</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>7.3599999999999999E-2</v>
       </c>
     </row>
@@ -1611,16 +1611,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.14488000000000001</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>1.1558999999999999</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.49296000000000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.76880000000000004</v>
       </c>
     </row>
@@ -1628,16 +1628,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.53759999999999997</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.58414999999999995</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.33126</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.1046</v>
       </c>
     </row>
@@ -1645,16 +1645,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.10952000000000001</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.11574</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.62414000000000003</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.86070000000000002</v>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>0.83862000000000003</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>2.3131599999999999</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.37685000000000002</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
@@ -1679,16 +1679,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-4.0070000000000001E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.96072999999999997</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.32521</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.90190000000000003</v>
       </c>
     </row>
@@ -1696,16 +1696,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.12581000000000001</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.88178999999999996</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.35472999999999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.7228</v>
       </c>
     </row>
@@ -1713,16 +1713,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>-9.7460000000000005E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.90713999999999995</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.34855999999999998</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.77980000000000005</v>
       </c>
     </row>
@@ -1730,16 +1730,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-0.53866999999999998</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.58352000000000004</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.61956</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.3846</v>
       </c>
     </row>
@@ -1747,16 +1747,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.17968999999999999</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.83552999999999999</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.62075999999999998</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.7722</v>
       </c>
     </row>
@@ -1764,16 +1764,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.58174000000000003</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.78915</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.26798</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
@@ -1781,16 +1781,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>9.3909999999999993E-2</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>1.09846</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.64678000000000002</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>0.88460000000000005</v>
       </c>
     </row>
@@ -1809,24 +1809,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1834,16 +1834,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>8.5879999999999998E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.08968</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -1851,16 +1851,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.22706999999999999</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.25491</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.16985</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.18126</v>
       </c>
     </row>
@@ -1868,16 +1868,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.14252000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.15317</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.16267000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.38096999999999998</v>
       </c>
     </row>
@@ -1885,16 +1885,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-9.0120000000000006E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.91381999999999997</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.32573999999999997</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.78203</v>
       </c>
     </row>
@@ -1902,16 +1902,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.23899000000000001</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.78742999999999996</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.17569000000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.17374000000000001</v>
       </c>
     </row>
@@ -1919,16 +1919,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.82284000000000002</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>2.2769499999999998</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.26618999999999998</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.99E-3</v>
       </c>
     </row>
@@ -1936,16 +1936,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>0.35515999999999998</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.42641</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.2477</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.15160999999999999</v>
       </c>
     </row>
@@ -1953,16 +1953,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.29772999999999999</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.3468</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.18278</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.10334</v>
       </c>
     </row>
@@ -1970,16 +1970,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-4.3459999999999999E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.95748</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.18451000000000001</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.81381000000000003</v>
       </c>
     </row>
@@ -1987,16 +1987,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>-8.3549999999999999E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.91983999999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.16718</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.61721999999999999</v>
       </c>
     </row>
@@ -2004,16 +2004,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>0.20979</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.23342</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.28487000000000001</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.46145000000000003</v>
       </c>
     </row>
@@ -2021,16 +2021,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.88861000000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.41122999999999998</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.51149999999999995</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>8.2339999999999997E-2</v>
       </c>
     </row>
@@ -2038,16 +2038,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.40889999999999999</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.5051600000000001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.17662</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2.06E-2</v>
       </c>
     </row>
@@ -2055,16 +2055,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.86519000000000001</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.42097000000000001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.29146</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2.99E-3</v>
       </c>
     </row>
@@ -2083,24 +2083,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2108,16 +2108,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.10363029999999999</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1091903000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.1883899999999999E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -2125,16 +2125,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-1.2762900000000001E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.98731820000000003</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.18511140000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.94499999999999995</v>
       </c>
     </row>
@@ -2142,16 +2142,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.10007000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1052483</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.177426</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.57269999999999999</v>
       </c>
     </row>
@@ -2159,16 +2159,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-0.1551524</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.85628470000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.26331589999999999</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.55569999999999997</v>
       </c>
     </row>
@@ -2176,16 +2176,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.51711039999999997</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.59624089999999996</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.24099979999999999</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
@@ -2193,16 +2193,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.28188940000000001</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.3256321</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.46157480000000001</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.54139999999999999</v>
       </c>
     </row>
@@ -2210,16 +2210,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>0.51688979999999995</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.6768042999999999</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.31607380000000002</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -2227,16 +2227,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-2.5779999999999998E-4</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.99974220000000003</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.19477539999999999</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.99890000000000001</v>
       </c>
     </row>
@@ -2244,16 +2244,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>5.2729100000000001E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>1.054144</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.23324729999999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.82120000000000004</v>
       </c>
     </row>
@@ -2261,16 +2261,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.2023056</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.2242221</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.28187570000000001</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.47289999999999999</v>
       </c>
     </row>
@@ -2278,16 +2278,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>0.37457360000000001</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.4543712</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.29089930000000003</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.19789999999999999</v>
       </c>
     </row>
@@ -2295,16 +2295,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.39203369999999998</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.67568139999999999</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.51958729999999997</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.45050000000000001</v>
       </c>
     </row>
@@ -2312,16 +2312,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.2473756</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.2806601</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.18813450000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>0.1885</v>
       </c>
     </row>
@@ -2329,16 +2329,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-9.3932000000000009E-3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.9906507</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.48166609999999999</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>0.98440000000000005</v>
       </c>
     </row>
@@ -2357,24 +2357,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2382,16 +2382,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>3.5085999999999999E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.035709</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>2.4041E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -2399,16 +2399,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.44545699999999999</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.5612029999999999</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.35050900000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.20399999999999999</v>
       </c>
     </row>
@@ -2416,16 +2416,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>-0.24081</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>0.785991</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.39687</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.54400000000000004</v>
       </c>
     </row>
@@ -2433,16 +2433,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.42109099999999999</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>1.5236240000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.46905999999999998</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.36899999999999999</v>
       </c>
     </row>
@@ -2450,16 +2450,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.21079000000000001</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.809944</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.439888</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.63200000000000001</v>
       </c>
     </row>
@@ -2467,16 +2467,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>5.1269999999999996E-3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.0051410000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.74636400000000003</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.995</v>
       </c>
     </row>
@@ -2484,16 +2484,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>0.29063800000000001</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.33728</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.69094500000000003</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.67400000000000004</v>
       </c>
     </row>
@@ -2501,16 +2501,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-0.292549</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.74635799999999997</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.41564000000000001</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.48199999999999998</v>
       </c>
     </row>
@@ -2518,16 +2518,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>0.296931</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>1.3457220000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.42991800000000002</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.49</v>
       </c>
     </row>
@@ -2535,16 +2535,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>-2.1489999999999999E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.97873900000000003</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.45986900000000003</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.96299999999999997</v>
       </c>
     </row>
@@ -2552,16 +2552,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-0.23732</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.78873899999999997</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.64227900000000004</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.71199999999999997</v>
       </c>
     </row>
@@ -2569,16 +2569,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.42958499999999999</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.650779</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>1.0725100000000001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.68899999999999995</v>
       </c>
     </row>
@@ -2586,16 +2586,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>8.8884000000000005E-2</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.092954</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.33743400000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>0.79200000000000004</v>
       </c>
     </row>
@@ -2603,16 +2603,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>0.10386099999999999</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>1.1094459999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.79483199999999998</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>0.89600000000000002</v>
       </c>
     </row>
@@ -2631,24 +2631,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2656,16 +2656,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.10717</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1131200000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.0919999999999999E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -2673,16 +2673,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-5.7630000000000001E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.17874000000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.74709999999999999</v>
       </c>
     </row>
@@ -2690,16 +2690,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>8.4949999999999998E-2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.08866</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.16477</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.60619999999999996</v>
       </c>
     </row>
@@ -2707,16 +2707,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-2.0969999999999999E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.97924999999999995</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.28875000000000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.94210000000000005</v>
       </c>
     </row>
@@ -2724,16 +2724,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.28397</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.75278999999999996</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.20080000000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.1573</v>
       </c>
     </row>
@@ -2741,16 +2741,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.81838999999999995</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>2.2668499999999998</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.31861</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
@@ -2758,16 +2758,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-0.14313999999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.86663000000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.33201000000000003</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.66639999999999999</v>
       </c>
     </row>
@@ -2775,16 +2775,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.15371000000000001</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.16615</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.17810000000000001</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.3881</v>
       </c>
     </row>
@@ -2792,16 +2792,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.13067000000000001</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.87751000000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.21953</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.55169999999999997</v>
       </c>
     </row>
@@ -2809,16 +2809,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.23613999999999999</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.2663500000000001</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.23202</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.30880000000000002</v>
       </c>
     </row>
@@ -2826,16 +2826,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-4.3310000000000001E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.95760999999999996</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.30475000000000002</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.88700000000000001</v>
       </c>
     </row>
@@ -2843,16 +2843,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.27006000000000002</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.76332999999999995</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.46167000000000002</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.55859999999999999</v>
       </c>
     </row>
@@ -2860,16 +2860,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.67566999999999999</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.96536</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.16757</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>5.5300000000000002E-5</v>
       </c>
     </row>
@@ -2877,16 +2877,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.82538</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.43807000000000001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.35596</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
@@ -2905,24 +2905,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2930,16 +2930,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.10535</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1111</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.158E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -2947,16 +2947,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>8.5459999999999994E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.0892200000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.19214000000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.65648099999999998</v>
       </c>
     </row>
@@ -2964,16 +2964,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>4.3119999999999999E-2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.0440700000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.17566000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.80606900000000004</v>
       </c>
     </row>
@@ -2981,16 +2981,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-0.14932999999999999</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.86129</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.27939000000000003</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.59302200000000005</v>
       </c>
     </row>
@@ -2998,16 +2998,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.23466999999999999</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.79083000000000003</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.2109</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.26584000000000002</v>
       </c>
     </row>
@@ -3015,16 +3015,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>1.15317</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>3.1682100000000002</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.28937000000000002</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>6.7500000000000001E-5</v>
       </c>
     </row>
@@ -3032,16 +3032,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-2.9139999999999999E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.97128000000000003</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.34456999999999999</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.93261099999999997</v>
       </c>
     </row>
@@ -3049,16 +3049,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>5.2109999999999997E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.0535000000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.19041</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.78431600000000001</v>
       </c>
     </row>
@@ -3066,16 +3066,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.21231</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.80871999999999999</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.22344</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.34203099999999997</v>
       </c>
     </row>
@@ -3083,16 +3083,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.29243000000000002</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.3396699999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.22827</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.20017299999999999</v>
       </c>
     </row>
@@ -3100,16 +3100,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>0.25081999999999999</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.28508</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.30303000000000002</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.407827</v>
       </c>
     </row>
@@ -3117,16 +3117,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.17080000000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.84299000000000002</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.42981999999999998</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.69108999999999998</v>
       </c>
     </row>
@@ -3134,16 +3134,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.56372999999999995</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.7572099999999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.1799</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>1.727E-3</v>
       </c>
     </row>
@@ -3151,16 +3151,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-1.07111</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.34262999999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.32173000000000002</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>8.7100000000000003E-4</v>
       </c>
     </row>
@@ -3179,26 +3179,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="2" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3206,16 +3206,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9.1520000000000004E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.0960000000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.4449999999999999E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2.4E-10</v>
       </c>
     </row>
@@ -3223,16 +3223,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.18190000000000001</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.1990000000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.223</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.41460999999999998</v>
       </c>
     </row>
@@ -3240,16 +3240,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>-0.28920000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>0.74890000000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.21290000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.1744</v>
       </c>
     </row>
@@ -3257,16 +3257,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>16.07</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>9549000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>2098</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.99389000000000005</v>
       </c>
     </row>
@@ -3274,16 +3274,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.28420000000000001</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.75260000000000005</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.2656</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.28453000000000001</v>
       </c>
     </row>
@@ -3291,16 +3291,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.68300000000000005</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.98</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.432</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.11384</v>
       </c>
     </row>
@@ -3308,16 +3308,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-0.432</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.6492</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.52729999999999999</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.41258</v>
       </c>
     </row>
@@ -3325,16 +3325,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.27479999999999999</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.3160000000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.22939999999999999</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.23104</v>
       </c>
     </row>
@@ -3342,16 +3342,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.11459999999999999</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.89170000000000005</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.27589999999999998</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.67778000000000005</v>
       </c>
     </row>
@@ -3359,16 +3359,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.1401</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.34110000000000001</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.68130000000000002</v>
       </c>
     </row>
@@ -3376,16 +3376,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-0.59</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.55430000000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.52790000000000004</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.26374999999999998</v>
       </c>
     </row>
@@ -3393,16 +3393,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.99070000000000003</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.37130000000000002</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.72919999999999996</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.17427000000000001</v>
       </c>
     </row>
@@ -3410,16 +3410,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.62509999999999999</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.8680000000000001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.23760000000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>8.5199999999999998E-3</v>
       </c>
     </row>
@@ -3427,16 +3427,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.84509999999999996</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.42949999999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.4884</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>8.3540000000000003E-2</v>
       </c>
     </row>
@@ -3455,24 +3455,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3480,16 +3480,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>7.9219999999999999E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.0824499999999999</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.9310000000000001E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>4.07E-5</v>
       </c>
     </row>
@@ -3497,16 +3497,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-0.22531999999999999</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.79825999999999997</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.31641000000000002</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.47639700000000001</v>
       </c>
     </row>
@@ -3514,16 +3514,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.26144000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.29881</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.31384000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.40481400000000001</v>
       </c>
     </row>
@@ -3531,16 +3531,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-0.30680000000000002</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.73580000000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.40654000000000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.45046000000000003</v>
       </c>
     </row>
@@ -3548,16 +3548,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.55986000000000002</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.57128999999999996</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.39956000000000003</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.16115599999999999</v>
       </c>
     </row>
@@ -3565,16 +3565,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>1.17241</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>3.2297500000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.49556</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.7989999999999999E-2</v>
       </c>
     </row>
@@ -3582,16 +3582,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>1.0653600000000001</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>2.9018700000000002</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.59560999999999997</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>7.3665999999999995E-2</v>
       </c>
     </row>
@@ -3599,16 +3599,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-0.43459999999999999</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.64751999999999998</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.34071000000000001</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.20210700000000001</v>
       </c>
     </row>
@@ -3616,16 +3616,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>0.17587</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>1.1922900000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.38675999999999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.64929499999999996</v>
       </c>
     </row>
@@ -3633,16 +3633,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>1.15872</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>3.1858499999999998</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.33376</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>5.1699999999999999E-4</v>
       </c>
     </row>
@@ -3650,16 +3650,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>0.50514000000000003</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.6572199999999999</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.42873</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.238707</v>
       </c>
     </row>
@@ -3667,16 +3667,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>0.33692</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>1.40063</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.63678000000000001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.59672999999999998</v>
       </c>
     </row>
@@ -3684,16 +3684,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.66681999999999997</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.94804</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.29918</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2.5826999999999999E-2</v>
       </c>
     </row>
@@ -3701,16 +3701,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-1.05074</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.34967999999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.53842000000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>5.0996E-2</v>
       </c>
     </row>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7506DD65-100F-844A-B7CA-D6364FA3503D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="219" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3736,16 +3736,16 @@
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3753,16 +3753,16 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>6.3420000000000004E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.0654699999999999</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>0.14879999999999999</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>0.66998199999999997</v>
       </c>
     </row>
@@ -3770,16 +3770,16 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>3.5249999999999997E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.0358799999999999</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>2.5219999999999999E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.162214</v>
       </c>
     </row>
@@ -3787,16 +3787,16 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.52737000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.6944699999999999</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>7.1080000000000004E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>1.1700000000000001E-13</v>
       </c>
     </row>
@@ -3804,16 +3804,16 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-1.738E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.98277000000000003</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>6.0260000000000001E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.77302199999999999</v>
       </c>
     </row>
@@ -3821,16 +3821,16 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.24293000000000001</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.78432999999999997</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1.1E-4</v>
       </c>
     </row>
@@ -3838,25 +3838,33 @@
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="17">
+        <v>-5.3690000000000002E-2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.94772000000000001</v>
+      </c>
+      <c r="D7" s="17">
+        <v>9.7030000000000005E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.57999100000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>9.7549999999999998E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.1024700000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.14069000000000001</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.48806899999999998</v>
       </c>
     </row>
@@ -3864,16 +3872,16 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.16571</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.1802299999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>2.4979999999999999E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>3.3000000000000002E-11</v>
       </c>
     </row>
@@ -3881,16 +3889,16 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-6.6729999999999998E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.93544000000000005</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.14843000000000001</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -3898,16 +3906,16 @@
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>-0.14637</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.86384000000000005</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1.5041000000000001E-2</v>
       </c>
     </row>
@@ -3915,16 +3923,16 @@
       <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-0.63149</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.53180000000000005</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.13149</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1.57E-6</v>
       </c>
     </row>
@@ -3932,16 +3940,16 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>0.19247</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>1.21225</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>7.7549999999999994E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>1.3063999999999999E-2</v>
       </c>
     </row>
@@ -3949,16 +3957,16 @@
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>-0.14258000000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>0.86712</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>9.2719999999999997E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>0.124127</v>
       </c>
     </row>
@@ -3966,16 +3974,16 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>0.41459000000000001</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>1.5137499999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.16253000000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1.0748000000000001E-2</v>
       </c>
     </row>
@@ -3983,16 +3991,16 @@
       <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>-0.13186</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>0.87646000000000002</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>7.8759999999999997E-2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>9.4102000000000005E-2</v>
       </c>
     </row>
@@ -4000,16 +4008,16 @@
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>-0.14929999999999999</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>0.86131000000000002</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>7.1708999999999995E-2</v>
       </c>
     </row>
@@ -4017,16 +4025,16 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>1.268E-2</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>1.0127600000000001</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>0.15915000000000001</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>0.93649199999999999</v>
       </c>
     </row>
@@ -4034,16 +4042,16 @@
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>0.53410999999999997</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>1.7059299999999999</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>0.13896</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>1.21E-4</v>
       </c>
     </row>
@@ -4057,29 +4065,29 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4087,16 +4095,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9.7350000000000006E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1022460000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.204E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4104,16 +4112,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.114191</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.120967</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>1.9434E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>4.2100000000000001E-9</v>
       </c>
     </row>
@@ -4121,16 +4129,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.120334</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.127874</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>1.8187999999999999E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>3.6900000000000003E-11</v>
       </c>
     </row>
@@ -4138,16 +4146,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-8.3495E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.91989500000000002</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>5.9515999999999999E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.16064300000000001</v>
       </c>
     </row>
@@ -4155,16 +4163,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-3.6194999999999998E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.96445199999999998</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>2.1912000000000001E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>9.8563999999999999E-2</v>
       </c>
     </row>
@@ -4172,16 +4180,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.55511200000000005</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.7421359999999999</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>3.6019000000000002E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4189,16 +4197,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>1.9005000000000001E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.0191870000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>3.2356999999999997E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.55696500000000004</v>
       </c>
     </row>
@@ -4206,16 +4214,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>7.5957999999999998E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.078918</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>2.0639999999999999E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>2.33E-4</v>
       </c>
     </row>
@@ -4223,16 +4231,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-3.0112E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.97033599999999998</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>2.2609000000000001E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.18289</v>
       </c>
     </row>
@@ -4240,16 +4248,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.14543900000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.1565479999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>2.7425999999999999E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1.14E-7</v>
       </c>
     </row>
@@ -4257,16 +4265,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-4.7540000000000004E-3</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.99525699999999995</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>3.6428000000000002E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.89616399999999996</v>
       </c>
     </row>
@@ -4274,16 +4282,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.167847</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.84548299999999998</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>4.5683000000000001E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>2.3900000000000001E-4</v>
       </c>
     </row>
@@ -4291,16 +4299,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.53333900000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.7046140000000001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>2.0031E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4308,16 +4316,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.57199199999999994</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.56440000000000001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>3.9588999999999999E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4336,24 +4344,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4361,16 +4369,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.10510220000000001</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.1108241000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>3.4618000000000001E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4378,16 +4386,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-0.11757040000000001</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.88907789999999998</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>5.6704600000000001E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>3.8136999999999997E-2</v>
       </c>
     </row>
@@ -4395,16 +4403,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.1595375</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1729683</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>5.23232E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>2.2950000000000002E-3</v>
       </c>
     </row>
@@ -4412,16 +4420,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-6.3929700000000006E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.93807099999999999</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>7.8158599999999995E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.413387</v>
       </c>
     </row>
@@ -4429,16 +4437,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-5.1397100000000001E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.94990140000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>6.3213599999999995E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.41617799999999999</v>
       </c>
     </row>
@@ -4446,16 +4454,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.66487309999999999</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.9442438</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>9.4224699999999995E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.71E-12</v>
       </c>
     </row>
@@ -4463,16 +4471,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-7.1221199999999998E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.93125590000000003</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.1043278</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.49481700000000001</v>
       </c>
     </row>
@@ -4480,16 +4488,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>3.3524499999999999E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.0340928</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>5.71802E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.55767699999999998</v>
       </c>
     </row>
@@ -4497,16 +4505,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-8.4170000000000002E-4</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.99915860000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>6.70042E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.989977</v>
       </c>
     </row>
@@ -4514,16 +4522,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>7.5250499999999998E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.0781542</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>7.7394900000000003E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.330905</v>
       </c>
     </row>
@@ -4531,16 +4539,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>1.12012E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.0112642000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>9.1611899999999996E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.90268700000000002</v>
       </c>
     </row>
@@ -4548,16 +4556,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.1616833</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.85071059999999998</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.13869409999999999</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.24371300000000001</v>
       </c>
     </row>
@@ -4565,16 +4573,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.21381169999999999</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.2383895</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>6.1910300000000001E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>5.53E-4</v>
       </c>
     </row>
@@ -4582,16 +4590,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.61856809999999995</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.53871519999999995</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.1035227</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2.2999999999999999E-9</v>
       </c>
     </row>
@@ -4610,24 +4618,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4635,16 +4643,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9.5152E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.099826</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>8.7469999999999996E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4652,16 +4660,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.101936</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.107313</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.16343299999999999</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.53281299999999998</v>
       </c>
     </row>
@@ -4669,16 +4677,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.389515</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.476264</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.14918899999999999</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>9.0310000000000008E-3</v>
       </c>
     </row>
@@ -4686,16 +4694,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.71475</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>2.043676</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.42266799999999999</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>9.0828000000000006E-2</v>
       </c>
     </row>
@@ -4703,16 +4711,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.169271</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.84428000000000003</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.15922600000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.28774499999999997</v>
       </c>
     </row>
@@ -4720,16 +4728,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>5.5944000000000001E-2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.0575380000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.239676</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.81544000000000005</v>
       </c>
     </row>
@@ -4737,16 +4745,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-8.9541999999999997E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.91435</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.24482499999999999</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.71455900000000006</v>
       </c>
     </row>
@@ -4754,16 +4762,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-3.2564000000000003E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.96796000000000004</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.16218199999999999</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.84086499999999997</v>
       </c>
     </row>
@@ -4771,16 +4779,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>7.1211999999999998E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>1.073809</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.158525</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.65327500000000005</v>
       </c>
     </row>
@@ -4788,16 +4796,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>-7.5992000000000004E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.92682299999999995</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.17711299999999999</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.667879</v>
       </c>
     </row>
@@ -4805,16 +4813,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-0.40787000000000001</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.66506500000000002</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.35972900000000002</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.25686799999999999</v>
       </c>
     </row>
@@ -4822,16 +4830,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-5.3442000000000003E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.94796100000000005</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.28685500000000003</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.85220600000000002</v>
       </c>
     </row>
@@ -4839,16 +4847,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.54068099999999997</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.7171749999999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.14851300000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2.72E-4</v>
       </c>
     </row>
@@ -4856,16 +4864,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.116465</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.89006099999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.269509</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>0.66564000000000001</v>
       </c>
     </row>
@@ -4884,24 +4892,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4909,16 +4917,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.102036</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.107424</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1.6570000000000001E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -4926,16 +4934,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>1.0255999999999999E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.0103089999999999</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>2.7934E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.71350100000000005</v>
       </c>
     </row>
@@ -4943,16 +4951,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.11088199999999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1172629999999999</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>2.5499000000000001E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>1.3699999999999999E-5</v>
       </c>
     </row>
@@ -4960,16 +4968,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-3.0766000000000002E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.96970199999999995</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>4.0798000000000001E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.45077400000000001</v>
       </c>
     </row>
@@ -4977,16 +4985,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-7.7945E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.92501599999999995</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>3.1217000000000002E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1.2529999999999999E-2</v>
       </c>
     </row>
@@ -4994,16 +5002,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.43059799999999998</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.5381769999999999</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>5.4963999999999999E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>4.7200000000000002E-15</v>
       </c>
     </row>
@@ -5011,16 +5019,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-0.132548</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.875861</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>5.4142000000000003E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>1.4359E-2</v>
       </c>
     </row>
@@ -5028,16 +5036,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>8.9348999999999998E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.0934619999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>2.7640000000000001E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>1.227E-3</v>
       </c>
     </row>
@@ -5045,16 +5053,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.101428</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.90354599999999996</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>3.4243999999999997E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>3.0569999999999998E-3</v>
       </c>
     </row>
@@ -5062,16 +5070,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>9.9294999999999994E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.104392</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>3.7727999999999998E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>8.4910000000000003E-3</v>
       </c>
     </row>
@@ -5079,16 +5087,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>3.0454999999999999E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.030924</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>4.9583000000000002E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.53906100000000001</v>
       </c>
     </row>
@@ -5096,16 +5104,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-0.24243300000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.78471599999999997</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>6.9387000000000004E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>4.7600000000000002E-4</v>
       </c>
     </row>
@@ -5113,16 +5121,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.463254</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.589237</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>2.6039E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -5130,16 +5138,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.38141999999999998</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.68289100000000003</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>5.9222999999999998E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1.19E-10</v>
       </c>
     </row>
@@ -5158,24 +5166,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5183,16 +5191,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>0.104308</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.109942</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>6.5950000000000002E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -5200,16 +5208,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-2.3236E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.97703200000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.10446800000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.82398300000000002</v>
       </c>
     </row>
@@ -5217,16 +5225,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.149613</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1613849999999999</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>9.7879999999999995E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.12637899999999999</v>
       </c>
     </row>
@@ -5234,16 +5242,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>-6.3494999999999996E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.93847899999999995</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.14995700000000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.67198800000000003</v>
       </c>
     </row>
@@ -5251,16 +5259,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-2.3421999999999998E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.97685</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.84824500000000003</v>
       </c>
     </row>
@@ -5268,16 +5276,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.74061699999999997</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>2.097229</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.19300999999999999</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.2400000000000001E-4</v>
       </c>
     </row>
@@ -5285,16 +5293,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-0.75874600000000003</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.46825299999999997</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.27009100000000003</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>4.9659999999999999E-3</v>
       </c>
     </row>
@@ -5302,16 +5310,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.21287700000000001</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.2372320000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.10526000000000001</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>4.3136000000000001E-2</v>
       </c>
     </row>
@@ -5319,16 +5327,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.36475800000000003</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.69436500000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.14660400000000001</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>1.2844E-2</v>
       </c>
     </row>
@@ -5336,16 +5344,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>5.3843000000000002E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.0553189999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.15098500000000001</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.72138000000000002</v>
       </c>
     </row>
@@ -5353,16 +5361,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>5.0818000000000002E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.0521320000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.18159500000000001</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.77959599999999996</v>
       </c>
     </row>
@@ -5370,16 +5378,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>5.9825999999999997E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>1.0616509999999999</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.25185600000000002</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.81223800000000002</v>
       </c>
     </row>
@@ -5387,16 +5395,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.395204</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.484688</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.10201200000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>1.07E-4</v>
       </c>
     </row>
@@ -5404,16 +5412,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.67219499999999999</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.51058599999999998</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.21270500000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1.5759999999999999E-3</v>
       </c>
     </row>
@@ -5432,26 +5440,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="2" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5459,16 +5467,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.105</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>9.5230000000000002E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -5476,16 +5484,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>0.2974</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1.3460000000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.14910000000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>4.614E-2</v>
       </c>
     </row>
@@ -5493,16 +5501,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.29849999999999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.3480000000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.13730000000000001</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>2.9669999999999998E-2</v>
       </c>
     </row>
@@ -5510,16 +5518,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>15.79</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>7201000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>1318</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.99043999999999999</v>
       </c>
     </row>
@@ -5527,16 +5535,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-9.6990000000000007E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.90759999999999996</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>0.16520000000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>0.55706</v>
       </c>
     </row>
@@ -5544,16 +5552,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.3049999999999999</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.38149</v>
       </c>
     </row>
@@ -5561,16 +5569,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>2.6540000000000001E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>1.0269999999999999</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0.26479999999999998</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.92018</v>
       </c>
     </row>
@@ -5578,16 +5586,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>-0.1749</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.1545</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.25747999999999999</v>
       </c>
     </row>
@@ -5595,16 +5603,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>0.21709999999999999</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>1.242</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.16309999999999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.18304000000000001</v>
       </c>
     </row>
@@ -5612,16 +5620,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.47420000000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.607</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.18640000000000001</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1.0970000000000001E-2</v>
       </c>
     </row>
@@ -5629,16 +5637,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>-1.072E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.98929999999999996</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.97001000000000004</v>
       </c>
     </row>
@@ -5646,16 +5654,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>-6.2640000000000001E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.34739999999999999</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.85692000000000002</v>
       </c>
     </row>
@@ -5663,16 +5671,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.48870000000000002</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.63</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0.15609999999999999</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>1.74E-3</v>
       </c>
     </row>
@@ -5680,16 +5688,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.62390000000000001</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.53580000000000005</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.33629999999999999</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>6.3570000000000002E-2</v>
       </c>
     </row>
@@ -5708,24 +5716,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="8.83203125" style="22"/>
+    <col min="2" max="4" width="8.83203125" style="17"/>
+    <col min="5" max="5" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5733,16 +5741,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>7.6402999999999999E-2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>1.0793980000000001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>3.3270000000000001E-3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -5750,16 +5758,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>-8.208E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>0.92119799999999996</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>5.4135999999999997E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>0.12947</v>
       </c>
     </row>
@@ -5767,16 +5775,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.13520099999999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1447670000000001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>5.1801E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>9.0500000000000008E-3</v>
       </c>
     </row>
@@ -5784,16 +5792,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.65002700000000002</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>1.915592</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>0.318965</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>4.156E-2</v>
       </c>
     </row>
@@ -5801,16 +5809,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>-0.173822</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.84044700000000006</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>5.5296999999999999E-2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1.67E-3</v>
       </c>
     </row>
@@ -5818,16 +5826,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>0.58561399999999997</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>1.7960929999999999</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>8.6497000000000004E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1.28E-11</v>
       </c>
     </row>
@@ -5835,16 +5843,16 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>-2.1377E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>0.97884899999999997</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>7.2257000000000002E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.76734000000000002</v>
       </c>
     </row>
@@ -5852,16 +5860,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>3.0622E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>1.031096</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>5.8658000000000002E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.60163999999999995</v>
       </c>
     </row>
@@ -5869,16 +5877,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>-0.15817100000000001</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.85370400000000002</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>5.5535000000000001E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
@@ -5886,16 +5894,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.14149400000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1.151994</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>6.1455999999999997E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>2.1309999999999999E-2</v>
       </c>
     </row>
@@ -5903,16 +5911,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>1.8312999999999999E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1.0184820000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>9.7838999999999995E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.85152000000000005</v>
       </c>
     </row>
@@ -5920,16 +5928,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>8.6060000000000008E-3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>1.008643</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>8.4046999999999997E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.91844000000000003</v>
       </c>
     </row>
@@ -5937,16 +5945,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>0.50045700000000004</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.649475</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>5.3397E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2E-16</v>
       </c>
     </row>
@@ -5954,16 +5962,16 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>-0.48958099999999999</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0.61288299999999996</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>9.1783000000000003E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>9.5999999999999999E-8</v>
       </c>
     </row>
